--- a/Estimaciones y gráficos/Resumen/Decompose/VAR findex 4 lag/Estimaciones.xlsx
+++ b/Estimaciones y gráficos/Resumen/Decompose/VAR findex 4 lag/Estimaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2497e95eb19b2b76/Desktop/GABO/TESIS/Tesis-paper/Estimaciones y gráficos/Resumen/Decompose/VAR findex 4 lag/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{6F48EE23-C148-4E42-826B-5D1D98901154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA459FD9-911F-49D2-A5F5-5D2BFBFA11F4}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{6F48EE23-C148-4E42-826B-5D1D98901154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE8896F7-6AB1-40F3-A652-7EB6BD0F4079}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{EC8FECFF-BFDA-4F05-BA98-3A5D94AA6909}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{EC8FECFF-BFDA-4F05-BA98-3A5D94AA6909}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation info" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>quarterly</t>
   </si>
@@ -228,6 +228,9 @@
   <si>
     <t>CONSUMO</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -274,12 +277,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -295,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -308,6 +317,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3402,7 +3412,7 @@
                   <c:v>8.1646455415443366</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3777544652965901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10.313831079692319</c:v>
@@ -15032,8 +15042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A56C996-9CD6-479F-BA33-9314741DF917}">
   <dimension ref="B2:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15234,13 +15244,13 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>1.1482325910744688</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>1.9462545445441071</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="8">
         <v>2.8283859201465695</v>
       </c>
       <c r="G9">
@@ -15530,8 +15540,8 @@
       <c r="N16">
         <v>0.11233501366628564</v>
       </c>
-      <c r="O16">
-        <v>5.3777544652965901</v>
+      <c r="O16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
@@ -16649,8 +16659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D587C340-2AC7-41A7-B98C-CF7C6D15DE1F}">
   <dimension ref="B2:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P73" sqref="P73"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18265,7 +18275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6716CE-AC26-49B2-8CF7-7B96C255680D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
@@ -18357,7 +18367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4DB9D5-BF48-475C-9C1D-D0F6A9CA0538}">
   <dimension ref="B3:T28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="P29" sqref="P29:Q29"/>
     </sheetView>
   </sheetViews>
